--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
@@ -115,82 +115,48 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="5" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="7" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="8" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="9" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="10" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="sjulvunp" xfId="1"/>
-    <cellStyle name="sjulvunp_Alternate" xfId="2"/>
+    <cellStyle name="rp53egrk" xfId="1"/>
+    <cellStyle name="rp53egrk_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="u2ucsfye" xfId="5"/>
-    <cellStyle name="u2ucsfye_Alternate" xfId="6"/>
-    <cellStyle name="qj45clpg" xfId="7"/>
-    <cellStyle name="qj45clpg_Alternate" xfId="8"/>
-    <cellStyle name="ifs01gdm" xfId="9"/>
-    <cellStyle name="ifs01gdm_Alternate" xfId="10"/>
+    <cellStyle name="3hyflwvh" xfId="5"/>
+    <cellStyle name="3hyflwvh_Alternate" xfId="6"/>
+    <cellStyle name="dsjjuppv" xfId="7"/>
+    <cellStyle name="dsjjuppv_Alternate" xfId="8"/>
+    <cellStyle name="chsaxxrr" xfId="9"/>
+    <cellStyle name="chsaxxrr_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -4534,67 +4500,67 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4618,22 +4584,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4652,22 +4618,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4657,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
@@ -10,6 +10,12 @@
     <sheet name="Reflection" sheetId="3" r:id="rId3"/>
     <sheet name="Soft Edge" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shadows'!$B$2:$X$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Illumination'!$B$2:$L$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Reflection'!$B$2:$I$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Soft Edge'!$B$2:$C$2</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -147,16 +153,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="rp53egrk" xfId="1"/>
-    <cellStyle name="rp53egrk_Alternate" xfId="2"/>
+    <cellStyle name="31yaphjp" xfId="1"/>
+    <cellStyle name="31yaphjp_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="3hyflwvh" xfId="5"/>
-    <cellStyle name="3hyflwvh_Alternate" xfId="6"/>
-    <cellStyle name="dsjjuppv" xfId="7"/>
-    <cellStyle name="dsjjuppv_Alternate" xfId="8"/>
-    <cellStyle name="chsaxxrr" xfId="9"/>
-    <cellStyle name="chsaxxrr_Alternate" xfId="10"/>
+    <cellStyle name="byinxmy1" xfId="5"/>
+    <cellStyle name="byinxmy1_Alternate" xfId="6"/>
+    <cellStyle name="s3oro1zf" xfId="7"/>
+    <cellStyle name="s3oro1zf_Alternate" xfId="8"/>
+    <cellStyle name="t4r1owwj" xfId="9"/>
+    <cellStyle name="t4r1owwj_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -4498,6 +4504,31 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="21" max="21" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="24" max="24" bestFit="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4570,6 +4601,8 @@
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="T2:X2"/>
   </mergeCells>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4582,6 +4615,19 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.291913986206055" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.291913986206055" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.291913986206055" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.291913986206055" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.291913986206055" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="10.291913986206055" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4604,6 +4650,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4616,6 +4664,16 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4643,6 +4701,8 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4655,6 +4715,10 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" s="11" t="s">
@@ -4668,6 +4732,8 @@
   <mergeCells>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
@@ -153,16 +153,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="31yaphjp" xfId="1"/>
-    <cellStyle name="31yaphjp_Alternate" xfId="2"/>
+    <cellStyle name="mhkthlux" xfId="1"/>
+    <cellStyle name="mhkthlux_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="byinxmy1" xfId="5"/>
-    <cellStyle name="byinxmy1_Alternate" xfId="6"/>
-    <cellStyle name="s3oro1zf" xfId="7"/>
-    <cellStyle name="s3oro1zf_Alternate" xfId="8"/>
-    <cellStyle name="t4r1owwj" xfId="9"/>
-    <cellStyle name="t4r1owwj_Alternate" xfId="10"/>
+    <cellStyle name="r40whssq" xfId="5"/>
+    <cellStyle name="r40whssq_Alternate" xfId="6"/>
+    <cellStyle name="tlevzune" xfId="7"/>
+    <cellStyle name="tlevzune_Alternate" xfId="8"/>
+    <cellStyle name="nap2kkm2" xfId="9"/>
+    <cellStyle name="nap2kkm2_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-11/Sample-11.xlsx
@@ -153,16 +153,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="mhkthlux" xfId="1"/>
-    <cellStyle name="mhkthlux_Alternate" xfId="2"/>
+    <cellStyle name="g1nnvesa" xfId="1"/>
+    <cellStyle name="g1nnvesa_Alternate" xfId="2"/>
     <cellStyle name="PerspectiveShadowStyle" xfId="3"/>
     <cellStyle name="PerspectiveShadowStyle_Alternate" xfId="4"/>
-    <cellStyle name="r40whssq" xfId="5"/>
-    <cellStyle name="r40whssq_Alternate" xfId="6"/>
-    <cellStyle name="tlevzune" xfId="7"/>
-    <cellStyle name="tlevzune_Alternate" xfId="8"/>
-    <cellStyle name="nap2kkm2" xfId="9"/>
-    <cellStyle name="nap2kkm2_Alternate" xfId="10"/>
+    <cellStyle name="4jwf5hg1" xfId="5"/>
+    <cellStyle name="4jwf5hg1_Alternate" xfId="6"/>
+    <cellStyle name="rvs2mhcs" xfId="7"/>
+    <cellStyle name="rvs2mhcs_Alternate" xfId="8"/>
+    <cellStyle name="xhxkjmww" xfId="9"/>
+    <cellStyle name="xhxkjmww_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
